--- a/excel/Timetable.xlsx
+++ b/excel/Timetable.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanl\Documents\SCHOOL\FASE 4\Public Transportation Design and Management\IP1b\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1b/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5327ECE-A472-43A3-BF34-6650E626213B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6712A29-7AF5-A843-B9E4-94F5B31A2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="10080" windowWidth="21600" windowHeight="11295" xr2:uid="{BCC249A8-F38C-4895-BFFE-5CFEC35DBE4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BCC249A8-F38C-4895-BFFE-5CFEC35DBE4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
   <si>
     <t>M track</t>
   </si>
@@ -98,13 +100,337 @@
   </si>
   <si>
     <t>St.-Truiden</t>
+  </si>
+  <si>
+    <t>K10C21</t>
+  </si>
+  <si>
+    <t>C10K21</t>
+  </si>
+  <si>
+    <t>E10K20</t>
+  </si>
+  <si>
+    <t>K11E21</t>
+  </si>
+  <si>
+    <t>E11M10</t>
+  </si>
+  <si>
+    <t>M11E10</t>
+  </si>
+  <si>
+    <t>K11E10</t>
+  </si>
+  <si>
+    <t>E10K11</t>
+  </si>
+  <si>
+    <t>M11C20</t>
+  </si>
+  <si>
+    <t>C11M20</t>
+  </si>
+  <si>
+    <t>E11C20</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>hasselt</t>
+  </si>
+  <si>
+    <t>aarschot</t>
+  </si>
+  <si>
+    <t>leuven</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
+    <t>missed</t>
+  </si>
+  <si>
+    <t>TTK11E10         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTE10K11         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTK11E21         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTE10K20         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTE11C20         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTC11M20         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTM11C20        37.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTC10K21         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTK10C21         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTE11M10         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTM11E10         3.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DC11LA        23.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BC1LALE         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AC11LE        51.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STC1LE         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DC10LE         2.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BC0LELA         7.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AC10LA        36.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STC0LA         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DE11HA        41.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STE1AA         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BE1HAAA         2.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DE11AA        69.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BE1AALE         2.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AE11LE        83.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STE1LE         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DE10LE        18.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STE0AA         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BE0LEAA         0.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DE10AA        31.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BE0AAHA         7.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AE10HA        63.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STE0HA         5.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK10HA         0.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STK0AL         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK10AL         7.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STK0ST         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK10ST        16.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BK0STLA         5.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AK0LA        30.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STK0LA         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK11LA        36.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STK1ST         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK11ST        46.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STK1AL         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK11AL        55.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BK1ALHA         4.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AK11HA        65.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STK1HA         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DM10LE        48.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STM0AA         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BM0LEAA         0.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DM10AA        63.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AM10HE        75.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STM0LE         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DM11HE        22.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STM1AA         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BM1HEAA        64.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DM11AA        99.000000          0.000000</t>
+  </si>
+  <si>
+    <t>BM1AALE         4.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AM11LE       117.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STM1HE         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>STM1LE         1.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DC21LA        83.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AK10LA        86.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK21LA        96.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DE21HA        62.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK20HA        60.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DC20LE        80.000000          0.000000</t>
+  </si>
+  <si>
+    <t>TTC10K11         0.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK20AL        67.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK21ST       106.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK20ST        76.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DE20LE        78.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AK20LA       146.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DK21AL       115.000000          0.000000</t>
+  </si>
+  <si>
+    <t>AK21HA       125.000000          0.000000</t>
+  </si>
+  <si>
+    <t>DM20LE       108.000000          0.000000</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>newv1</t>
+  </si>
+  <si>
+    <t>percentage_missed=</t>
+  </si>
+  <si>
+    <t>percentage_long=</t>
+  </si>
+  <si>
+    <t>stopping_cost=</t>
+  </si>
+  <si>
+    <t>total_cost_arriving_late=</t>
+  </si>
+  <si>
+    <t>total_delay=</t>
+  </si>
+  <si>
+    <t>total_cost_through_passengers=</t>
+  </si>
+  <si>
+    <t>total_cost_of_transfers=</t>
+  </si>
+  <si>
+    <t>totale_kost=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +444,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +488,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,22 +548,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -195,9 +608,51 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,7 +668,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,366 +964,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98622A6-32DE-45EB-9584-32C39145B355}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6">
+      <c r="G2" s="24"/>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="9">
+        <f>H28</f>
+        <v>0.3125</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="O2" s="9">
+        <f>N2-M2</f>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="P2" s="11">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9">
+        <f>D20</f>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O11" si="0">N3-M3</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="P3" s="15">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="4">
         <v>0.32430555555555557</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.3347222222222222</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.3354166666666667</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>0.34375</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="5"/>
+      <c r="K4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="9">
+        <f>F12</f>
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
+      <c r="G5" s="24"/>
+      <c r="K5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="9">
+        <f>H31</f>
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999967E-2</v>
+      </c>
+      <c r="P5" s="15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="9">
+        <f>D15</f>
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="15">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="4">
         <v>0.30624999999999997</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>0.30694444444444441</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0.35972222222222222</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.36041666666666666</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>0.37291666666666662</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>0.37361111111111112</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="K7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="9">
+        <f>D7</f>
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="15">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="9">
+        <f>H31</f>
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="15">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="K9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="9">
+        <f>F12</f>
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="0"/>
+        <v>2.0833333333332704E-3</v>
+      </c>
+      <c r="P9" s="15">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
+      <c r="G10" s="24"/>
+      <c r="K10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="9">
+        <f>F7</f>
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="9">
+        <f>D23</f>
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9583333333333359E-2</v>
+      </c>
+      <c r="P11" s="15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>0.30416666666666664</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.3125</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.31319444444444444</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>0.3354166666666667</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>0.33611111111111108</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="K12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="9">
+        <f>F15</f>
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="16">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="G13" s="24"/>
+      <c r="K13" s="10"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>0.32013888888888892</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>0.33958333333333335</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>0.34027777777777773</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>0.34930555555555554</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
         <v>0.29305555555555557</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>0.31666666666666665</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>0.31736111111111115</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
         <v>0.30763888888888891</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>0.32708333333333334</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>0.32777777777777778</v>
       </c>
       <c r="F23" s="1"/>
@@ -876,166 +1562,166 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>0.29583333333333334</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>0.29652777777777778</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>0.30208333333333331</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>0.30277777777777776</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="4">
         <v>0.3125</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>0.31319444444444444</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="24"/>
+      <c r="H29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
         <v>0.31666666666666665</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>0.32361111111111113</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="4">
         <v>0.32916666666666666</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <v>0.3298611111111111</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="4">
         <v>0.33680555555555558</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4">
         <v>0.33749999999999997</v>
       </c>
     </row>
@@ -1063,7 +1749,6 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:C10"/>
@@ -1077,8 +1762,587 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD30610-BCBA-1E4B-82E3-0FF484C0F2D5}">
+  <dimension ref="A1:K120"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E23" s="23"/>
+      <c r="F23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E24" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E25" s="23"/>
+      <c r="F25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E26" s="23"/>
+      <c r="F26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E27" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="17"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="17"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A120">
+    <sortCondition ref="A1:A120"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB165CB-314C-7347-BDD1-D1EDECBC143D}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="26">
+        <v>5.7884000000000002</v>
+      </c>
+      <c r="C2" s="26">
+        <v>15.7661</v>
+      </c>
+      <c r="D2" s="26">
+        <f>C2-B2</f>
+        <v>9.9776999999999987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="26">
+        <v>5.7884000000000002</v>
+      </c>
+      <c r="C3" s="26">
+        <v>70.251800000000003</v>
+      </c>
+      <c r="D3" s="26">
+        <f t="shared" ref="D3:D9" si="0">C3-B3</f>
+        <v>64.463400000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="26">
+        <v>13088</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" si="0"/>
+        <v>-13088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1175900</v>
+      </c>
+      <c r="C5" s="26">
+        <v>875.83209999999997</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="0"/>
+        <v>-1175024.1679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="26">
+        <v>34.0702</v>
+      </c>
+      <c r="C6" s="26">
+        <v>4.6879</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="0"/>
+        <v>-29.382300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="26">
+        <v>66132</v>
+      </c>
+      <c r="C7" s="26">
+        <v>617800000</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="0"/>
+        <v>617733868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="26">
+        <v>558480</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1636000</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="0"/>
+        <v>1077520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1813600</v>
+      </c>
+      <c r="C9" s="26">
+        <v>619440000</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="0"/>
+        <v>617626400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/Timetable.xlsx
+++ b/excel/Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1b/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanl\Documents\SCHOOL\FASE 4\Public Transportation Design and Management\IP1b\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6712A29-7AF5-A843-B9E4-94F5B31A2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757E1274-BDB6-44B2-BA24-1B06876BE9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BCC249A8-F38C-4895-BFFE-5CFEC35DBE4C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{BCC249A8-F38C-4895-BFFE-5CFEC35DBE4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -430,16 +430,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,7 +463,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +473,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,46 +587,41 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,13 +629,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,7 +647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,26 +945,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98622A6-32DE-45EB-9584-32C39145B355}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="M1" t="s">
         <v>6</v>
       </c>
@@ -996,45 +975,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="K2" s="8" t="s">
+      <c r="G2" s="23"/>
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <f>H28</f>
-        <v>0.3125</v>
-      </c>
-      <c r="N2" s="9">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="N2" s="6">
         <v>0.34930555555555554</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="6">
         <f>N2-M2</f>
-        <v>3.6805555555555536E-2</v>
-      </c>
-      <c r="P2" s="11">
+        <v>1.8055555555555547E-2</v>
+      </c>
+      <c r="P2" s="8">
         <v>4817</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1053,104 +1032,104 @@
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="6">
         <f>D20</f>
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="N3" s="9">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="N3" s="6">
         <v>0.35833333333333334</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="6">
         <f t="shared" ref="O3:O11" si="0">N3-M3</f>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="P3" s="15">
+        <v>3.2638888888888884E-2</v>
+      </c>
+      <c r="P3" s="12">
         <v>4817</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="4">
-        <v>0.32430555555555557</v>
-      </c>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="D4" s="4">
-        <v>0.3347222222222222</v>
+        <v>0.33124999999999999</v>
       </c>
       <c r="E4" s="4">
-        <v>0.3354166666666667</v>
+        <v>0.33194444444444443</v>
       </c>
       <c r="F4" s="4">
-        <v>0.34375</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="K4" s="27" t="s">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <f>F12</f>
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="N4" s="9">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="N4" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="12">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="K5" s="8" t="s">
+      <c r="G5" s="23"/>
+      <c r="K5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <f>H31</f>
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="N5" s="9">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="N5" s="6">
         <v>0.36180555555555555</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <f t="shared" si="0"/>
-        <v>2.4999999999999967E-2</v>
-      </c>
-      <c r="P5" s="15">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="P5" s="12">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1169,156 +1148,156 @@
       <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="22" t="s">
         <v>25</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <f>D15</f>
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="12">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="G7" s="4">
         <v>0.33958333333333335</v>
       </c>
-      <c r="N6" s="9">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="15">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="4">
-        <v>0.30624999999999997</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.30694444444444441</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.35972222222222222</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.36041666666666666</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.37291666666666662</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="22" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="6">
         <f>D7</f>
-        <v>0.35972222222222222</v>
-      </c>
-      <c r="N7" s="9">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="N7" s="6">
         <v>0.31319444444444444</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="12">
         <v>980</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K8" s="27" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="22" t="s">
         <v>27</v>
       </c>
       <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="6">
         <f>H31</f>
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="N8" s="9">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="N8" s="6">
         <v>0.33611111111111108</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="12">
         <v>4227</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="K9" s="8" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="K9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="6">
         <f>F12</f>
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="N9" s="9">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="N9" s="6">
         <v>0.33749999999999997</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="11">
         <f t="shared" si="0"/>
-        <v>2.0833333333332704E-3</v>
-      </c>
-      <c r="P9" s="15">
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="P9" s="12">
         <v>1745</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="K10" s="27" t="s">
+      <c r="G10" s="23"/>
+      <c r="K10" s="22" t="s">
         <v>29</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="6">
         <f>F7</f>
-        <v>0.37291666666666662</v>
-      </c>
-      <c r="N10" s="9">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="N10" s="6">
         <v>0.3347222222222222</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="12">
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1337,86 +1316,86 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="6">
         <f>D23</f>
-        <v>0.32708333333333334</v>
-      </c>
-      <c r="N11" s="9">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="N11" s="6">
         <v>0.3666666666666667</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="6">
         <f t="shared" si="0"/>
-        <v>3.9583333333333359E-2</v>
-      </c>
-      <c r="P11" s="15">
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="P11" s="12">
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <v>0.30416666666666664</v>
+        <v>0.31875000000000003</v>
       </c>
       <c r="D12" s="4">
-        <v>0.3125</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="E12" s="4">
-        <v>0.31319444444444444</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="F12" s="4">
-        <v>0.3354166666666667</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="G12" s="4">
-        <v>0.33611111111111108</v>
-      </c>
-      <c r="K12" s="27" t="s">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>31</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="6">
         <f>F15</f>
-        <v>0.34930555555555554</v>
-      </c>
-      <c r="N12" s="9">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="N12" s="6">
         <v>0.3347222222222222</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="13">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="K13" s="10"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="G13" s="23"/>
+      <c r="K13" s="7"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1436,53 +1415,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="4">
+        <v>0.30069444444444443</v>
+      </c>
       <c r="C15" s="4">
-        <v>0.32013888888888892</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="D15" s="4">
-        <v>0.33958333333333335</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="E15" s="4">
-        <v>0.34027777777777773</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="F15" s="4">
-        <v>0.34930555555555554</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="G15" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+        <v>0.33819444444444446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1498,38 +1479,38 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="D20" s="4">
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.31736111111111115</v>
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3263888888888889</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1545,63 +1526,63 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D23" s="4">
-        <v>0.32708333333333334</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="E23" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.31180555555555556</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
@@ -1627,54 +1608,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.31041666666666667</v>
       </c>
       <c r="D28" s="4">
-        <v>0.29583333333333334</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="E28" s="4">
-        <v>0.29652777777777778</v>
+        <v>0.31527777777777777</v>
       </c>
       <c r="F28" s="4">
-        <v>0.30208333333333331</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="G28" s="4">
-        <v>0.30277777777777776</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="H28" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.31319444444444444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.33194444444444443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24" t="s">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
       <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1700,33 +1681,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>0.31666666666666665</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="D31" s="4">
-        <v>0.32291666666666669</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="E31" s="4">
-        <v>0.32361111111111113</v>
+        <v>0.3347222222222222</v>
       </c>
       <c r="F31" s="4">
-        <v>0.32916666666666666</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="G31" s="4">
-        <v>0.3298611111111111</v>
+        <v>0.34097222222222223</v>
       </c>
       <c r="H31" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="I31" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="A26:A28"/>
@@ -1737,32 +1744,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1777,415 +1758,415 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E23" s="23"/>
-      <c r="F23" s="20" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="20"/>
+      <c r="F23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E24" s="23" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E25" s="23"/>
-      <c r="F25" s="20" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="20"/>
+      <c r="F25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E26" s="23"/>
-      <c r="F26" s="20" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="20"/>
+      <c r="F26" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E27" s="23" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K28" s="22" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K29" s="22" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="17"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="17"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A120">
@@ -2203,15 +2184,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>118</v>
       </c>
@@ -2222,122 +2203,122 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="21">
         <v>5.7884000000000002</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="21">
         <v>15.7661</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="21">
         <f>C2-B2</f>
         <v>9.9776999999999987</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="21">
         <v>5.7884000000000002</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="21">
         <v>70.251800000000003</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="21">
         <f t="shared" ref="D3:D9" si="0">C3-B3</f>
         <v>64.463400000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="21">
         <v>13088</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="21">
         <v>0</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="21">
         <f t="shared" si="0"/>
         <v>-13088</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="21">
         <v>1175900</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="21">
         <v>875.83209999999997</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <f t="shared" si="0"/>
         <v>-1175024.1679</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="21">
         <v>34.0702</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="21">
         <v>4.6879</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <f t="shared" si="0"/>
         <v>-29.382300000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="21">
         <v>66132</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="21">
         <v>617800000</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>617733868</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="21">
         <v>558480</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="21">
         <v>1636000</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="21">
         <f t="shared" si="0"/>
         <v>1077520</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="21">
         <v>1813600</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="21">
         <v>619440000</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>617626400</v>
       </c>

--- a/excel/Timetable.xlsx
+++ b/excel/Timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1b/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6712A29-7AF5-A843-B9E4-94F5B31A2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E28802C-885B-ED4C-9EB0-75739CEFBBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BCC249A8-F38C-4895-BFFE-5CFEC35DBE4C}"/>
+    <workbookView xWindow="8180" yWindow="0" windowWidth="20620" windowHeight="18000" xr2:uid="{BCC249A8-F38C-4895-BFFE-5CFEC35DBE4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -484,12 +484,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,6 +515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,12 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,7 +618,7 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,13 +626,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,8 +644,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98622A6-32DE-45EB-9584-32C39145B355}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1012,24 +1012,24 @@
         <v>4</v>
       </c>
       <c r="G2" s="24"/>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <f>H28</f>
-        <v>0.3125</v>
-      </c>
-      <c r="N2" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N2" s="7">
         <v>0.34930555555555554</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7">
         <f>N2-M2</f>
-        <v>3.6805555555555536E-2</v>
-      </c>
-      <c r="P2" s="11">
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="P2" s="9">
         <v>4817</v>
       </c>
     </row>
@@ -1053,62 +1053,60 @@
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <f>D20</f>
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="N3" s="9">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="N3" s="7">
         <v>0.35833333333333334</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <f t="shared" ref="O3:O11" si="0">N3-M3</f>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="P3" s="15">
+        <v>2.7083333333333348E-2</v>
+      </c>
+      <c r="P3" s="13">
         <v>4817</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
-      <c r="B4" s="4">
-        <v>0.32430555555555557</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="D4" s="4">
         <v>0.3347222222222222</v>
       </c>
       <c r="E4" s="4">
-        <v>0.3354166666666667</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="F4" s="4">
-        <v>0.34375</v>
+        <v>0.34583333333333338</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="23" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <f>F12</f>
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="N4" s="9">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="N4" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="13">
         <v>119</v>
       </c>
     </row>
@@ -1128,24 +1126,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <f>H31</f>
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="N5" s="9">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="N5" s="7">
         <v>0.36180555555555555</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <f t="shared" si="0"/>
-        <v>2.4999999999999967E-2</v>
-      </c>
-      <c r="P5" s="15">
+        <v>8.3333333333333592E-3</v>
+      </c>
+      <c r="P5" s="13">
         <v>121</v>
       </c>
     </row>
@@ -1169,84 +1167,82 @@
       <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="L6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <f>D15</f>
-        <v>0.33958333333333335</v>
-      </c>
-      <c r="N6" s="9">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="N6" s="7">
         <v>0.3354166666666667</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="13">
         <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
-      <c r="B7" s="4">
-        <v>0.30624999999999997</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.30694444444444441</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.35972222222222222</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="27">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.32430555555555557</v>
       </c>
       <c r="E7" s="4">
-        <v>0.36041666666666666</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F7" s="4">
-        <v>0.37291666666666662</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="G7" s="4">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="K7" s="27" t="s">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <f>D7</f>
-        <v>0.35972222222222222</v>
-      </c>
-      <c r="N7" s="9">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="N7" s="7">
         <v>0.31319444444444444</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="13">
         <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="23" t="s">
         <v>27</v>
       </c>
       <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <f>H31</f>
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="N8" s="9">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="N8" s="7">
         <v>0.33611111111111108</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="13">
         <v>4227</v>
       </c>
     </row>
@@ -1260,24 +1256,24 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <f>F12</f>
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="N9" s="9">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="N9" s="7">
         <v>0.33749999999999997</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="12">
         <f t="shared" si="0"/>
-        <v>2.0833333333332704E-3</v>
-      </c>
-      <c r="P9" s="15">
+        <v>-1.1111111111111183E-2</v>
+      </c>
+      <c r="P9" s="13">
         <v>1745</v>
       </c>
     </row>
@@ -1297,23 +1293,23 @@
         <v>10</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <f>F7</f>
-        <v>0.37291666666666662</v>
-      </c>
-      <c r="N10" s="9">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="N10" s="7">
         <v>0.3347222222222222</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="13">
         <v>394</v>
       </c>
     </row>
@@ -1337,24 +1333,24 @@
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <f>D23</f>
-        <v>0.32708333333333334</v>
-      </c>
-      <c r="N11" s="9">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="N11" s="7">
         <v>0.3666666666666667</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <f t="shared" si="0"/>
-        <v>3.9583333333333359E-2</v>
-      </c>
-      <c r="P11" s="15">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P11" s="13">
         <v>533</v>
       </c>
     </row>
@@ -1362,37 +1358,37 @@
       <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <v>0.30416666666666664</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="D12" s="4">
-        <v>0.3125</v>
+        <v>0.32569444444444445</v>
       </c>
       <c r="E12" s="4">
-        <v>0.31319444444444444</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="F12" s="4">
-        <v>0.3354166666666667</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="G12" s="4">
-        <v>0.33611111111111108</v>
-      </c>
-      <c r="K12" s="27" t="s">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>31</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <f>F15</f>
-        <v>0.34930555555555554</v>
-      </c>
-      <c r="N12" s="9">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="N12" s="7">
         <v>0.3347222222222222</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="14">
         <v>149</v>
       </c>
     </row>
@@ -1412,8 +1408,8 @@
         <v>2</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="K13" s="10"/>
-      <c r="P13" s="12"/>
+      <c r="K13" s="8"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
@@ -1440,19 +1436,19 @@
       <c r="A15" s="25"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>0.32013888888888892</v>
+        <v>0.31388888888888888</v>
       </c>
       <c r="D15" s="4">
-        <v>0.33958333333333335</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="E15" s="4">
-        <v>0.34027777777777773</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F15" s="4">
-        <v>0.34930555555555554</v>
+        <v>0.3430555555555555</v>
       </c>
       <c r="G15" s="4">
-        <v>0.35000000000000003</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,14 +1498,12 @@
       <c r="A20" s="25"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
-        <v>0.29305555555555557</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="D20" s="4">
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.31736111111111115</v>
-      </c>
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="E20" s="26"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
@@ -1549,13 +1543,13 @@
       <c r="A23" s="25"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <v>0.30763888888888891</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="D23" s="4">
-        <v>0.32708333333333334</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="E23" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1631,26 +1625,24 @@
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="D28" s="4">
-        <v>0.29583333333333334</v>
+        <v>0.32013888888888892</v>
       </c>
       <c r="E28" s="4">
-        <v>0.29652777777777778</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="F28" s="4">
-        <v>0.30208333333333331</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="G28" s="4">
-        <v>0.30277777777777776</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="H28" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.31319444444444444</v>
-      </c>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
@@ -1704,29 +1696,55 @@
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>0.31666666666666665</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D31" s="4">
-        <v>0.32291666666666669</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="E31" s="4">
-        <v>0.32361111111111113</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="F31" s="4">
-        <v>0.32916666666666666</v>
+        <v>0.34583333333333338</v>
       </c>
       <c r="G31" s="4">
-        <v>0.3298611111111111</v>
+        <v>0.34652777777777777</v>
       </c>
       <c r="H31" s="4">
-        <v>0.33680555555555558</v>
+        <v>0.35347222222222219</v>
       </c>
       <c r="I31" s="4">
-        <v>0.33749999999999997</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="A26:A28"/>
@@ -1737,32 +1755,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1780,412 +1772,412 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E23" s="23"/>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E25" s="23"/>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E26" s="23"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
+      <c r="A81" s="15"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
+      <c r="A95" s="15"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
+      <c r="A96" s="15"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
+      <c r="A97" s="15"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
+      <c r="A98" s="15"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
+      <c r="A99" s="15"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
+      <c r="A100" s="15"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
+      <c r="A101" s="15"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
+      <c r="A102" s="15"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
+      <c r="A103" s="15"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
+      <c r="A104" s="15"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
+      <c r="A105" s="15"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17"/>
+      <c r="A106" s="15"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17"/>
+      <c r="A107" s="15"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="17"/>
+      <c r="A108" s="15"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17"/>
+      <c r="A109" s="15"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="17"/>
+      <c r="A110" s="15"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17"/>
+      <c r="A111" s="15"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
+      <c r="A112" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="17"/>
+      <c r="A113" s="15"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="17"/>
+      <c r="A114" s="15"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="17"/>
+      <c r="A115" s="15"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="17"/>
+      <c r="A116" s="15"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17"/>
+      <c r="A117" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="17"/>
+      <c r="A118" s="15"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="17"/>
+      <c r="A119" s="15"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="17"/>
+      <c r="A120" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A120">
@@ -2226,13 +2218,13 @@
       <c r="A2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>5.7884000000000002</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="22">
         <v>15.7661</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <f>C2-B2</f>
         <v>9.9776999999999987</v>
       </c>
@@ -2241,13 +2233,13 @@
       <c r="A3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>5.7884000000000002</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>70.251800000000003</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <f t="shared" ref="D3:D9" si="0">C3-B3</f>
         <v>64.463400000000007</v>
       </c>
@@ -2256,13 +2248,13 @@
       <c r="A4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>13088</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <f t="shared" si="0"/>
         <v>-13088</v>
       </c>
@@ -2271,13 +2263,13 @@
       <c r="A5" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>1175900</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>875.83209999999997</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <f t="shared" si="0"/>
         <v>-1175024.1679</v>
       </c>
@@ -2286,13 +2278,13 @@
       <c r="A6" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>34.0702</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>4.6879</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <f t="shared" si="0"/>
         <v>-29.382300000000001</v>
       </c>
@@ -2301,13 +2293,13 @@
       <c r="A7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>66132</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>617800000</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <f t="shared" si="0"/>
         <v>617733868</v>
       </c>
@@ -2316,13 +2308,13 @@
       <c r="A8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>558480</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>1636000</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>1077520</v>
       </c>
@@ -2331,13 +2323,13 @@
       <c r="A9" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>1813600</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>619440000</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <f t="shared" si="0"/>
         <v>617626400</v>
       </c>
